--- a/www.eia.gov/electricity/monthly/xls/table_1_12_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_12_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.12.B. Utility Scale Facility Net Generation from Hydroelectric (Pumped Storage) Power</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,13 +1389,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>-416</v>
+        <v>-453</v>
       </c>
       <c r="C7" s="10">
-        <v>-416</v>
+        <v>-441</v>
       </c>
       <c r="D7" s="11">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>-416</v>
+        <v>-453</v>
       </c>
       <c r="H7" s="10">
-        <v>-416</v>
+        <v>-441</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="13">
         <v>-4</v>
       </c>
       <c r="D8" s="14">
-        <v>-1.411</v>
+        <v>-1.748</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="13">
         <v>-4</v>
@@ -1503,13 +1503,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>-418</v>
+        <v>-456</v>
       </c>
       <c r="C10" s="13">
-        <v>-412</v>
+        <v>-436</v>
       </c>
       <c r="D10" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>-418</v>
+        <v>-456</v>
       </c>
       <c r="H10" s="13">
-        <v>-412</v>
+        <v>-436</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>-1033</v>
+        <v>-1121</v>
       </c>
       <c r="C14" s="10">
-        <v>-949</v>
+        <v>-1025</v>
       </c>
       <c r="D14" s="11">
-        <v>8.8999999999999996E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>-573</v>
+        <v>-612</v>
       </c>
       <c r="F14" s="10">
-        <v>-516</v>
+        <v>-550</v>
       </c>
       <c r="G14" s="10">
-        <v>-460</v>
+        <v>-508</v>
       </c>
       <c r="H14" s="10">
-        <v>-433</v>
+        <v>-475</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>-176</v>
+        <v>-189</v>
       </c>
       <c r="C15" s="13">
-        <v>-151</v>
+        <v>-160</v>
       </c>
       <c r="D15" s="14">
-        <v>0.16400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E15" s="13">
-        <v>-176</v>
+        <v>-189</v>
       </c>
       <c r="F15" s="13">
-        <v>-151</v>
+        <v>-160</v>
       </c>
       <c r="G15" s="13">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>-397</v>
+        <v>-424</v>
       </c>
       <c r="C16" s="13">
-        <v>-365</v>
+        <v>-389</v>
       </c>
       <c r="D16" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="E16" s="13">
-        <v>-397</v>
+        <v>-424</v>
       </c>
       <c r="F16" s="13">
-        <v>-365</v>
+        <v>-389</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>-460</v>
+        <v>-508</v>
       </c>
       <c r="C17" s="13">
-        <v>-433</v>
+        <v>-475</v>
       </c>
       <c r="D17" s="14">
-        <v>6.4000000000000001E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>-460</v>
+        <v>-508</v>
       </c>
       <c r="H17" s="13">
-        <v>-433</v>
+        <v>-475</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>-646</v>
+        <v>-694</v>
       </c>
       <c r="C18" s="10">
-        <v>-428</v>
+        <v>-449</v>
       </c>
       <c r="D18" s="11">
-        <v>0.51</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E18" s="10">
-        <v>-646</v>
+        <v>-694</v>
       </c>
       <c r="F18" s="10">
-        <v>-428</v>
+        <v>-449</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
@@ -1921,19 +1921,19 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>-646</v>
+        <v>-694</v>
       </c>
       <c r="C21" s="13">
-        <v>-428</v>
+        <v>-449</v>
       </c>
       <c r="D21" s="14">
-        <v>0.51</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E21" s="13">
-        <v>-646</v>
+        <v>-694</v>
       </c>
       <c r="F21" s="13">
-        <v>-428</v>
+        <v>-449</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
@@ -2035,19 +2035,19 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C24" s="10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D24" s="11">
-        <v>-0.25900000000000001</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="E24" s="10">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F24" s="10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -2187,19 +2187,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C28" s="13">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.25900000000000001</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="E28" s="13">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F28" s="13">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2339,19 +2339,19 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>-2625</v>
+        <v>-2859</v>
       </c>
       <c r="C32" s="10">
-        <v>-2534</v>
+        <v>-2626</v>
       </c>
       <c r="D32" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>-2625</v>
+        <v>-2859</v>
       </c>
       <c r="F32" s="10">
-        <v>-2534</v>
+        <v>-2626</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2491,19 +2491,19 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>-716</v>
+        <v>-851</v>
       </c>
       <c r="C36" s="13">
-        <v>-834</v>
+        <v>-826</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.14099999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E36" s="13">
-        <v>-716</v>
+        <v>-851</v>
       </c>
       <c r="F36" s="13">
-        <v>-834</v>
+        <v>-826</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>-856</v>
+        <v>-913</v>
       </c>
       <c r="C39" s="13">
-        <v>-798</v>
+        <v>-848</v>
       </c>
       <c r="D39" s="14">
-        <v>7.2999999999999995E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>-856</v>
+        <v>-913</v>
       </c>
       <c r="F39" s="13">
-        <v>-798</v>
+        <v>-848</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>-1054</v>
+        <v>-1094</v>
       </c>
       <c r="C40" s="13">
-        <v>-902</v>
+        <v>-953</v>
       </c>
       <c r="D40" s="14">
-        <v>0.16800000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E40" s="13">
-        <v>-1054</v>
+        <v>-1094</v>
       </c>
       <c r="F40" s="13">
-        <v>-902</v>
+        <v>-953</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>-616</v>
+        <v>-662</v>
       </c>
       <c r="C42" s="10">
-        <v>-456</v>
+        <v>-483</v>
       </c>
       <c r="D42" s="11">
-        <v>0.35099999999999998</v>
+        <v>0.371</v>
       </c>
       <c r="E42" s="10">
-        <v>-616</v>
+        <v>-662</v>
       </c>
       <c r="F42" s="10">
-        <v>-456</v>
+        <v>-483</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2871,19 +2871,19 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>-616</v>
+        <v>-662</v>
       </c>
       <c r="C46" s="13">
-        <v>-456</v>
+        <v>-483</v>
       </c>
       <c r="D46" s="14">
-        <v>0.35099999999999998</v>
+        <v>0.371</v>
       </c>
       <c r="E46" s="13">
-        <v>-616</v>
+        <v>-662</v>
       </c>
       <c r="F46" s="13">
-        <v>-456</v>
+        <v>-483</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2909,19 +2909,19 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="C47" s="10">
-        <v>-37</v>
+        <v>-41</v>
       </c>
       <c r="D47" s="11">
-        <v>-5.5E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="F47" s="10">
-        <v>-37</v>
+        <v>-41</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="13">
         <v>29</v>
       </c>
       <c r="D48" s="14">
-        <v>0.33500000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="E48" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" s="13">
         <v>29</v>
@@ -3023,19 +3023,19 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>-73</v>
+        <v>-79</v>
       </c>
       <c r="C50" s="13">
-        <v>-65</v>
+        <v>-70</v>
       </c>
       <c r="D50" s="14">
-        <v>0.11700000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="E50" s="13">
-        <v>-73</v>
+        <v>-79</v>
       </c>
       <c r="F50" s="13">
-        <v>-65</v>
+        <v>-70</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
@@ -3099,19 +3099,19 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>-176</v>
+        <v>-202</v>
       </c>
       <c r="C52" s="10">
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="D52" s="11">
-        <v>9.0999999999999998E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E52" s="10">
-        <v>-176</v>
+        <v>-202</v>
       </c>
       <c r="F52" s="10">
-        <v>-161</v>
+        <v>-181</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3137,19 +3137,19 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C53" s="13">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D53" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="E53" s="13">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F53" s="13">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3175,19 +3175,19 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>-251</v>
+        <v>-270</v>
       </c>
       <c r="C54" s="13">
-        <v>-238</v>
+        <v>-256</v>
       </c>
       <c r="D54" s="14">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="E54" s="13">
-        <v>-251</v>
+        <v>-270</v>
       </c>
       <c r="F54" s="13">
-        <v>-238</v>
+        <v>-256</v>
       </c>
       <c r="G54" s="13">
         <v>0</v>
@@ -3441,19 +3441,19 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>21</v>
+        <v>-99</v>
       </c>
       <c r="C61" s="10">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D61" s="11">
-        <v>-0.88600000000000001</v>
+        <v>-1.6060000000000001</v>
       </c>
       <c r="E61" s="10">
-        <v>21</v>
+        <v>-99</v>
       </c>
       <c r="F61" s="10">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3479,19 +3479,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>23</v>
+        <v>-97</v>
       </c>
       <c r="C62" s="13">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D62" s="14">
-        <v>-0.85199999999999998</v>
+        <v>-1.7749999999999999</v>
       </c>
       <c r="E62" s="13">
-        <v>23</v>
+        <v>-97</v>
       </c>
       <c r="F62" s="13">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G62" s="13">
         <v>0</v>
@@ -3555,19 +3555,19 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C64" s="13">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D64" s="14">
-        <v>-1.044</v>
+        <v>-1.046</v>
       </c>
       <c r="E64" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F64" s="13">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3707,25 +3707,25 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>-5326</v>
+        <v>-5933</v>
       </c>
       <c r="C68" s="10">
-        <v>-4526</v>
+        <v>-4811</v>
       </c>
       <c r="D68" s="11">
-        <v>0.17699999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="E68" s="10">
-        <v>-4450</v>
+        <v>-4972</v>
       </c>
       <c r="F68" s="10">
-        <v>-3677</v>
+        <v>-3895</v>
       </c>
       <c r="G68" s="10">
-        <v>-876</v>
+        <v>-961</v>
       </c>
       <c r="H68" s="10">
-        <v>-849</v>
+        <v>-916</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
